--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/141.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/141.xlsx
@@ -479,13 +479,13 @@
         <v>0.01386406634343243</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.986483320860048</v>
+        <v>-2.01482084542244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1125812552334329</v>
+        <v>0.1087613220349598</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1073341836575539</v>
+        <v>-0.1082649226102714</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01095389008816734</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.138299286430084</v>
+        <v>-2.173008652302463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05868317494988375</v>
+        <v>0.0551352663732403</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1024212726063483</v>
+        <v>-0.1057758363284626</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.006522226861847695</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.260437731710913</v>
+        <v>-2.300416812230395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03896626923264927</v>
+        <v>0.0417383587084692</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1156785084361441</v>
+        <v>-0.1207170631467598</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.002457687880550566</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.335581178927627</v>
+        <v>-2.391890275646361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0511768811811454</v>
+        <v>0.06087888938617676</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1399838474045542</v>
+        <v>-0.1424363384457581</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01790689340779834</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.26877900688612</v>
+        <v>-2.3345510229046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05392701351260239</v>
+        <v>0.06611810799944257</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1416849161720045</v>
+        <v>-0.1404022529888033</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.03777671096939487</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.971828756759823</v>
+        <v>-2.02808662014171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1574110348950919</v>
+        <v>0.170178504421459</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1433201135063661</v>
+        <v>-0.1385474842108125</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05850848836759002</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.639731217715242</v>
+        <v>-1.709694608624335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2087425689708852</v>
+        <v>0.2129638299746585</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.120789033786616</v>
+        <v>-0.1086235559681993</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07406818162375134</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.240258791113688</v>
+        <v>-1.306695620669823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2241723422512576</v>
+        <v>0.221450266270931</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1031178020191946</v>
+        <v>-0.09677889642575199</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07556204609513564</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7791203344895209</v>
+        <v>-0.8591986499018036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2231244985286044</v>
+        <v>0.2198150689365694</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0577390937484623</v>
+        <v>-0.04103946561910048</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04826935875358164</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2095703073354168</v>
+        <v>-0.3060060853774058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1795895804636815</v>
+        <v>0.1630784178234349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009827918821687556</v>
+        <v>0.02281983915709794</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02459964733642291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3582810907339438</v>
+        <v>0.2404743020993796</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007116821413542438</v>
+        <v>-0.02231856036699559</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0780115611960297</v>
+        <v>0.1021235553099107</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1520169302080468</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9295797604682845</v>
+        <v>0.8017397767012148</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1275713517120544</v>
+        <v>-0.1644434963041815</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1806081479938508</v>
+        <v>0.202436599093987</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3307977408064839</v>
       </c>
       <c r="E14" t="n">
-        <v>1.52061973274693</v>
+        <v>1.369322199752129</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3351157695165604</v>
+        <v>-0.3856605059193486</v>
       </c>
       <c r="G14" t="n">
-        <v>0.286201275076535</v>
+        <v>0.3179311784429993</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5469940469553022</v>
       </c>
       <c r="E15" t="n">
-        <v>2.111809745512055</v>
+        <v>1.934675972650207</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6269805010401318</v>
+        <v>-0.6836488410374706</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3977258807405942</v>
+        <v>0.4276882339858425</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7872276153536287</v>
       </c>
       <c r="E16" t="n">
-        <v>2.623966236984166</v>
+        <v>2.438890686990382</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8584063629427079</v>
+        <v>-0.9155852065464848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5061673373836919</v>
+        <v>0.5360016072868231</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.035623072059372</v>
       </c>
       <c r="E17" t="n">
-        <v>3.123191190267866</v>
+        <v>2.921218397845454</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.156250756781117</v>
+        <v>-1.223196870102338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6169033156127158</v>
+        <v>0.6536967804375424</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.275379094210217</v>
       </c>
       <c r="E18" t="n">
-        <v>3.548487658322933</v>
+        <v>3.327042538374662</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.485171828941194</v>
+        <v>-1.552574162928622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.769473753059889</v>
+        <v>0.8098474522572267</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.490478668010396</v>
       </c>
       <c r="E19" t="n">
-        <v>3.922949677653757</v>
+        <v>3.670666968289104</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.797598816239972</v>
+        <v>-1.862190025828268</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9187115839293108</v>
+        <v>0.9564199297692595</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.672554853727611</v>
       </c>
       <c r="E20" t="n">
-        <v>4.278495617115916</v>
+        <v>4.013715633084696</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.095674979935546</v>
+        <v>-2.151228994856466</v>
       </c>
       <c r="G20" t="n">
-        <v>1.060371760310815</v>
+        <v>1.101238275414965</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.817339389015982</v>
       </c>
       <c r="E21" t="n">
-        <v>4.506053362086556</v>
+        <v>4.242966517853988</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.376555040070885</v>
+        <v>-2.426406906584887</v>
       </c>
       <c r="G21" t="n">
-        <v>1.188076341687646</v>
+        <v>1.236286301739843</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.924805868330896</v>
       </c>
       <c r="E22" t="n">
-        <v>4.699357961851025</v>
+        <v>4.426736837599532</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.682066746736694</v>
+        <v>-2.730113248047522</v>
       </c>
       <c r="G22" t="n">
-        <v>1.317583238664269</v>
+        <v>1.347634030407645</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.994665011605424</v>
       </c>
       <c r="E23" t="n">
-        <v>4.831952277293346</v>
+        <v>4.570049899015022</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.98898005111767</v>
+        <v>-3.02970049021974</v>
       </c>
       <c r="G23" t="n">
-        <v>1.428736402636188</v>
+        <v>1.457718003433226</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.027560142765631</v>
       </c>
       <c r="E24" t="n">
-        <v>4.928046499756356</v>
+        <v>4.665031626163644</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.193396185771136</v>
+        <v>-3.229429689432734</v>
       </c>
       <c r="G24" t="n">
-        <v>1.541640038950375</v>
+        <v>1.571295602095219</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.027213015006374</v>
       </c>
       <c r="E25" t="n">
-        <v>4.987654047494944</v>
+        <v>4.735309126221263</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.344148449680923</v>
+        <v>-3.37595276336995</v>
       </c>
       <c r="G25" t="n">
-        <v>1.613216670049466</v>
+        <v>1.649083055445636</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.997167095637287</v>
       </c>
       <c r="E26" t="n">
-        <v>4.98974973494025</v>
+        <v>4.739821319387845</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.456020710130728</v>
+        <v>-3.492785508683748</v>
       </c>
       <c r="G26" t="n">
-        <v>1.663238704432281</v>
+        <v>1.693926253362183</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.943770885042488</v>
       </c>
       <c r="E27" t="n">
-        <v>4.928985777598548</v>
+        <v>4.697057341058331</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.559660871206465</v>
+        <v>-3.58512079001596</v>
       </c>
       <c r="G27" t="n">
-        <v>1.665311214891871</v>
+        <v>1.695254050675464</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.871916867242336</v>
       </c>
       <c r="E28" t="n">
-        <v>4.851821053259091</v>
+        <v>4.624896405950915</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.57868185743153</v>
+        <v>-3.607225230222324</v>
       </c>
       <c r="G28" t="n">
-        <v>1.657668908812218</v>
+        <v>1.684789641624497</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.786249286484404</v>
       </c>
       <c r="E29" t="n">
-        <v>4.692637855834615</v>
+        <v>4.470102197716319</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.562099639032442</v>
+        <v>-3.598305445285222</v>
       </c>
       <c r="G29" t="n">
-        <v>1.621516470618654</v>
+        <v>1.65004063090813</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.69138733615607</v>
       </c>
       <c r="E30" t="n">
-        <v>4.559877641968218</v>
+        <v>4.340025634827613</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.445480060995168</v>
+        <v>-3.475963286498359</v>
       </c>
       <c r="G30" t="n">
-        <v>1.576084699249044</v>
+        <v>1.610462878193949</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.591221451399507</v>
       </c>
       <c r="E31" t="n">
-        <v>4.37926305180417</v>
+        <v>4.172014445527886</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.383731081760518</v>
+        <v>-3.413798036401829</v>
       </c>
       <c r="G31" t="n">
-        <v>1.482461875368217</v>
+        <v>1.508085862839757</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.489778371716736</v>
       </c>
       <c r="E32" t="n">
-        <v>4.148227539134712</v>
+        <v>3.953392038471606</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.241051727928168</v>
+        <v>-3.271402600644505</v>
       </c>
       <c r="G32" t="n">
-        <v>1.427998398617323</v>
+        <v>1.454228037320873</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.387818832574298</v>
       </c>
       <c r="E33" t="n">
-        <v>3.903252899318855</v>
+        <v>3.719630180377085</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.119987352959093</v>
+        <v>-3.148545668806467</v>
       </c>
       <c r="G33" t="n">
-        <v>1.310950351304633</v>
+        <v>1.333926673118409</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.287765333967879</v>
       </c>
       <c r="E34" t="n">
-        <v>3.586593062523445</v>
+        <v>3.419008817697441</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.851738750039206</v>
+        <v>-2.86877566430281</v>
       </c>
       <c r="G34" t="n">
-        <v>1.165344598065246</v>
+        <v>1.181469680917111</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.188086880274411</v>
       </c>
       <c r="E35" t="n">
-        <v>3.34053764326839</v>
+        <v>3.183181768191451</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.741021679351161</v>
+        <v>-2.762837322117086</v>
       </c>
       <c r="G35" t="n">
-        <v>1.081898910596637</v>
+        <v>1.096268031820145</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.090663418777662</v>
       </c>
       <c r="E36" t="n">
-        <v>3.043648995130444</v>
+        <v>2.895600509580682</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.589880286049609</v>
+        <v>-2.610022916399214</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9949870439220695</v>
+        <v>1.00051414509476</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9947624623333483</v>
       </c>
       <c r="E37" t="n">
-        <v>2.759030731167317</v>
+        <v>2.617089991274509</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.464473275862087</v>
+        <v>-2.495926885161984</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9194001843733594</v>
+        <v>0.9379795880284587</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9010931639428406</v>
       </c>
       <c r="E38" t="n">
-        <v>2.504360792273872</v>
+        <v>2.371870163346598</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.334315593523375</v>
+        <v>-2.365358116287144</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8335440903902422</v>
+        <v>0.8526150901108005</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8082708785104462</v>
       </c>
       <c r="E39" t="n">
-        <v>2.246814467468884</v>
+        <v>2.12444059280683</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.22144550284641</v>
+        <v>-2.252916189925256</v>
       </c>
       <c r="G39" t="n">
-        <v>0.724152377332771</v>
+        <v>0.7319569223124393</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7147178634150839</v>
       </c>
       <c r="E40" t="n">
-        <v>2.001075597045061</v>
+        <v>1.882510677009299</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.158102800883417</v>
+        <v>-2.199787829535763</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6367507443547744</v>
+        <v>0.6420960891657943</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6201193187286144</v>
       </c>
       <c r="E41" t="n">
-        <v>1.711602974415695</v>
+        <v>1.595914440291477</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.049924220051997</v>
+        <v>-2.088596240561208</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5596494517656989</v>
+        <v>0.5707853834817649</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5246199620722809</v>
       </c>
       <c r="E42" t="n">
-        <v>1.488597677376303</v>
+        <v>1.376022178386207</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.972276438536556</v>
+        <v>-2.012148782937607</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4982078725521297</v>
+        <v>0.5142701335742899</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4309903002066337</v>
       </c>
       <c r="E43" t="n">
-        <v>1.24637743933664</v>
+        <v>1.142645180238714</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.87231592890364</v>
+        <v>-1.915713614816294</v>
       </c>
       <c r="G43" t="n">
-        <v>0.42724421173317</v>
+        <v>0.4379446600860379</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3418723704622084</v>
       </c>
       <c r="E44" t="n">
-        <v>1.062565644985078</v>
+        <v>0.953094642239629</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.797617113860275</v>
+        <v>-1.846996901770474</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3944554860718711</v>
+        <v>0.4118437146452815</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.261674328398353</v>
       </c>
       <c r="E45" t="n">
-        <v>0.875011987281666</v>
+        <v>0.7802955756274298</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.738055310172443</v>
+        <v>-1.795004823601763</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3258863738298242</v>
+        <v>0.3394278326949846</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.192592306401434</v>
       </c>
       <c r="E46" t="n">
-        <v>0.704995988717468</v>
+        <v>0.6082406122408631</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.691140211716983</v>
+        <v>-1.744907768975708</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2408536727603169</v>
+        <v>0.2571599020531763</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1368083258147633</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5496156467125165</v>
+        <v>0.4660998183660817</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.63254269261909</v>
+        <v>-1.695101646512461</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1741234713586654</v>
+        <v>0.187988798103179</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09300192484874961</v>
       </c>
       <c r="E48" t="n">
-        <v>0.409888918876304</v>
+        <v>0.337352272632011</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.518428363761558</v>
+        <v>-1.58308605470362</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08767148487436545</v>
+        <v>0.09933316821378831</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05906905310109511</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2979190711182187</v>
+        <v>0.2307814427044995</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.422715341721516</v>
+        <v>-1.484841861855073</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07081754681378635</v>
+        <v>0.08235114681109214</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03217525691951983</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2162043385302209</v>
+        <v>0.1537307735315941</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.331490116020986</v>
+        <v>-1.405749788177092</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01852538767211486</v>
+        <v>0.02639397432284156</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.009966631988951317</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08386070048604358</v>
+        <v>0.02383840668726719</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.223206018912489</v>
+        <v>-1.288171719796308</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01790517435004664</v>
+        <v>-0.01249334818526112</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.009310773532305992</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02241912127247446</v>
+        <v>-0.03879800713205137</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.159922479255141</v>
+        <v>-1.221687316427386</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07223873799679388</v>
+        <v>-0.07398250121161658</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02678135978174148</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1016137376303339</v>
+        <v>-0.162803419604406</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.083992844286098</v>
+        <v>-1.142901422929133</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.131469964677828</v>
+        <v>-0.1305373959630803</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04237649119254117</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2301673285891988</v>
+        <v>-0.2872144293267981</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.015059609400033</v>
+        <v>-1.070227544532571</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1989509784325564</v>
+        <v>-0.1956250809822493</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05587126054961026</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2684026458938578</v>
+        <v>-0.3104926618755645</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9754849062892349</v>
+        <v>-1.021446698726938</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2126071023849454</v>
+        <v>-0.2223414363858444</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06663970217877013</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3610148312133131</v>
+        <v>-0.4060672319219852</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9275805164960889</v>
+        <v>-0.9842677640344069</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2679281276073478</v>
+        <v>-0.269041232842413</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07569943271291742</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4374378920098448</v>
+        <v>-0.4804568171822388</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8992710482848277</v>
+        <v>-0.9456945506748294</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2915186395426091</v>
+        <v>-0.2914545978715506</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08381307108680439</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5283111934798914</v>
+        <v>-0.5664251365698776</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8445947092177482</v>
+        <v>-0.8945124471648395</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3367564561370126</v>
+        <v>-0.3460534770126833</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.09231328809736647</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6190210362085696</v>
+        <v>-0.6600314925924323</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.858059927998315</v>
+        <v>-0.9115536308731802</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3410600564321469</v>
+        <v>-0.3431764811804627</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1018219979998947</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7825950525849545</v>
+        <v>-0.8285739228016069</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8925326446481152</v>
+        <v>-0.9481299639370845</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3741897277517479</v>
+        <v>-0.3795588594691611</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1120521962327647</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.922048535957984</v>
+        <v>-0.969773609072166</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8984879101358832</v>
+        <v>-0.9579777431838586</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.409962795284375</v>
+        <v>-0.4121816867063844</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1230530636461199</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.00422497849828</v>
+        <v>-1.046200329392758</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8650642570500897</v>
+        <v>-0.9152033962028405</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4403289160176306</v>
+        <v>-0.4439634333303722</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1350342448865285</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.108074952286819</v>
+        <v>-1.144091378169468</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9136340703015677</v>
+        <v>-0.9619483267894885</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4682352266615613</v>
+        <v>-0.4691068033086342</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1488894422873926</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.206471625304552</v>
+        <v>-1.251783242300842</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.940982303526274</v>
+        <v>-0.9956952378339585</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4898874106861173</v>
+        <v>-0.4870549390632993</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1654217308326187</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.288483999182803</v>
+        <v>-1.325064601691445</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9713075595741874</v>
+        <v>-1.022784254771047</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5112791585817019</v>
+        <v>-0.5121855007073496</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1854579589972961</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.347316947661921</v>
+        <v>-1.385343672095132</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.978730904130888</v>
+        <v>-1.023647292528645</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5550995195233429</v>
+        <v>-0.5603362984539018</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2089345301104708</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.410746868281689</v>
+        <v>-1.456049336467828</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.028471155161046</v>
+        <v>-1.07126867912778</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5859352791776945</v>
+        <v>-0.5826892813360413</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2350701597579727</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.473088690414138</v>
+        <v>-1.530418184425072</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.053401662823122</v>
+        <v>-1.099251839776981</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6110865781247541</v>
+        <v>-0.6116129396687877</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2631586524236275</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.477348376420546</v>
+        <v>-1.524638576092207</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.122259877465948</v>
+        <v>-1.174342223894818</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6053856495591901</v>
+        <v>-0.6008033155147818</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.29172497758126</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.491014259103763</v>
+        <v>-1.539371819959733</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.119484128466067</v>
+        <v>-1.16943907157444</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.626749951024321</v>
+        <v>-0.6232630345153524</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3205843985690177</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.498318669128498</v>
+        <v>-1.544595180635403</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.165222080015405</v>
+        <v>-1.219239704751596</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.629579982964432</v>
+        <v>-0.6294122547783263</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3487422003350821</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.4857408849326</v>
+        <v>-1.521383429440403</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.273028609234008</v>
+        <v>-1.338810383983316</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6416869083978809</v>
+        <v>-0.639021555040492</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3759667853628185</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.409625224157149</v>
+        <v>-1.457681484198805</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.325573275535853</v>
+        <v>-1.387090484913339</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6655116298730136</v>
+        <v>-0.6685831904011168</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4013099880243815</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.341648954812901</v>
+        <v>-1.384991137943972</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.376279640917979</v>
+        <v>-1.439957799253183</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6782980069403599</v>
+        <v>-0.6798831907792281</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4239667223354324</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.213125859887874</v>
+        <v>-1.250628662459758</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.4047580571567</v>
+        <v>-1.465532383149906</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6744396487392517</v>
+        <v>-0.6793293828047409</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4430409135091897</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.06525181165166</v>
+        <v>-1.106426946618245</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.442406630770327</v>
+        <v>-1.500031326388807</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6237363329605089</v>
+        <v>-0.6257801771482916</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4582215947830595</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9393038018238633</v>
+        <v>-0.9791413807463395</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.482762642268039</v>
+        <v>-1.543657732555242</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6073977778717818</v>
+        <v>-0.611452530530803</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4701897129358971</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7644913870577187</v>
+        <v>-0.8096395453126402</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.546331624802105</v>
+        <v>-1.604438157755216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5443258806892652</v>
+        <v>-0.5417904404360235</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4795212795484369</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5618671993525394</v>
+        <v>-0.6081101652222236</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.543768128197733</v>
+        <v>-1.591510889011541</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4940324316052971</v>
+        <v>-0.4975876592300615</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4864366304165108</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3506547185980706</v>
+        <v>-0.3972471690155315</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.65030236288464</v>
+        <v>-1.706990220343634</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4424538796554208</v>
+        <v>-0.4395280901690604</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4912273660340679</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0949259574097914</v>
+        <v>-0.1337663160257845</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.650963516898235</v>
+        <v>-1.711579873436164</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4192897022732063</v>
+        <v>-0.4184864367419291</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4948648427481147</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1248754263146435</v>
+        <v>0.08442365727068203</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.69591406085389</v>
+        <v>-1.763694545660901</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.302642982765817</v>
+        <v>-0.2963870263844122</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4975281296035676</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3799845080953467</v>
+        <v>0.3411587875755955</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.736923297396399</v>
+        <v>-1.81161906283638</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.257270983622529</v>
+        <v>-0.2453811899500023</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5007100427092062</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6446425079912175</v>
+        <v>0.601932202681258</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.726976101079315</v>
+        <v>-1.803417459496149</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1659127952144676</v>
+        <v>-0.1550665758198569</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5050523026697202</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8519813825276593</v>
+        <v>0.8109514086821407</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.719586912080512</v>
+        <v>-1.796195998683452</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1120598490609978</v>
+        <v>-0.0953028883880217</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5106404431106953</v>
       </c>
       <c r="E86" t="n">
-        <v>1.085714574350373</v>
+        <v>1.050545938208403</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.666024898089851</v>
+        <v>-1.750861204701445</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06698549120796286</v>
+        <v>-0.05548238724449449</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5155532001878518</v>
       </c>
       <c r="E87" t="n">
-        <v>1.263576592500258</v>
+        <v>1.229285022291452</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.55099141877246</v>
+        <v>-1.638423547784295</v>
       </c>
       <c r="G87" t="n">
-        <v>0.007963391312868742</v>
+        <v>0.01778311420851247</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5178832797502999</v>
       </c>
       <c r="E88" t="n">
-        <v>1.424814002764021</v>
+        <v>1.393587283955874</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.485232821008869</v>
+        <v>-1.568709614431991</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04431283388502275</v>
+        <v>0.06179499024265234</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.515339486450313</v>
       </c>
       <c r="E89" t="n">
-        <v>1.505816348001577</v>
+        <v>1.471875482181902</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.320176697387986</v>
+        <v>-1.404395154354035</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07622632337518813</v>
+        <v>0.09661780136090596</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.506807975040383</v>
       </c>
       <c r="E90" t="n">
-        <v>1.657457266337387</v>
+        <v>1.624651462897139</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.214736050474489</v>
+        <v>-1.302650016820954</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1245503385939368</v>
+        <v>0.1400642809277004</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.49077956871744</v>
       </c>
       <c r="E91" t="n">
-        <v>1.722236331494121</v>
+        <v>1.687759345399584</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9718766155655933</v>
+        <v>-1.051915896054564</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1332892820503829</v>
+        <v>0.1477114663727675</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4697837796147856</v>
       </c>
       <c r="E92" t="n">
-        <v>1.791588581885112</v>
+        <v>1.759866607487446</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7649732243923496</v>
+        <v>-0.826552035758187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1746114079000639</v>
+        <v>0.1943197747278239</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4416422499620614</v>
       </c>
       <c r="E93" t="n">
-        <v>1.838148096586029</v>
+        <v>1.809145758485982</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5421557829213957</v>
+        <v>-0.6055655761588307</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1437402728464609</v>
+        <v>0.1655248096578713</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4131007241361341</v>
       </c>
       <c r="E94" t="n">
-        <v>1.869346759043046</v>
+        <v>1.852590408290746</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3733065626118168</v>
+        <v>-0.4307409629791511</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07743518615650279</v>
+        <v>0.1027712910686171</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3770242915066426</v>
       </c>
       <c r="E95" t="n">
-        <v>1.843836826738058</v>
+        <v>1.825081156007379</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2071495321694038</v>
+        <v>-0.2549392568753212</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04808885279476998</v>
+        <v>0.06485435235722059</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.356477895838078</v>
       </c>
       <c r="E96" t="n">
-        <v>1.828759587608846</v>
+        <v>1.817104003476191</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06225372659775143</v>
+        <v>-0.09772488339538823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00539501534308267</v>
+        <v>0.0185906491845269</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3515666864581972</v>
       </c>
       <c r="E97" t="n">
-        <v>1.706413769297923</v>
+        <v>1.699343568813059</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04388222988723862</v>
+        <v>0.023979298363596</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01299165337816429</v>
+        <v>-0.005037677832692861</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3199917995573701</v>
       </c>
       <c r="E98" t="n">
-        <v>1.574882545595174</v>
+        <v>1.572765510926182</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1010354568225921</v>
+        <v>0.08603994706406438</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04347609872270897</v>
+        <v>-0.03846255075983993</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2883990087703685</v>
       </c>
       <c r="E99" t="n">
-        <v>1.427029844582647</v>
+        <v>1.424545027745575</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1520156765885786</v>
+        <v>0.1454986741575256</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0628294917166016</v>
+        <v>-0.05647777778894732</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2549879274058657</v>
       </c>
       <c r="E100" t="n">
-        <v>1.258818601300947</v>
+        <v>1.258179404431715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2016437022142145</v>
+        <v>0.1990808155305192</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0757329735538835</v>
+        <v>-0.06551375261496979</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1939782754218212</v>
       </c>
       <c r="E101" t="n">
-        <v>1.127295306566996</v>
+        <v>1.124410991686654</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2166331127659748</v>
+        <v>0.2181847509676219</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1141567563476577</v>
+        <v>-0.1108326886593807</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1719706707008636</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9622861468382223</v>
+        <v>0.9640799235485383</v>
       </c>
       <c r="F102" t="n">
-        <v>0.209282958690484</v>
+        <v>0.2093201638517656</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1140914948352456</v>
+        <v>-0.1069785999030098</v>
       </c>
     </row>
   </sheetData>
